--- a/Automation Savings New.xlsx
+++ b/Automation Savings New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\One Drive RTS\OneDrive - Resolve Tech Solutions\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srikanthp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F3DC0E-2D8F-48BE-806B-26A22779E0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CFD23-9F94-4F4C-BBD3-33BF63011B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78008D38-37A4-4080-8E46-8C23667BA900}"/>
+    <workbookView xWindow="384" yWindow="1548" windowWidth="22656" windowHeight="10152" xr2:uid="{78008D38-37A4-4080-8E46-8C23667BA900}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Jan2026" sheetId="30" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Total Savings</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>IT</t>
-  </si>
-  <si>
-    <t>Functional Area</t>
-  </si>
-  <si>
-    <t>Cumulative Savings in USD</t>
   </si>
   <si>
     <t>Finance Accounting</t>
@@ -65,42 +59,19 @@
     <t>Gas Ops</t>
   </si>
   <si>
-    <t>Savings
-2019</t>
-  </si>
-  <si>
-    <t>Savings
-2020</t>
-  </si>
-  <si>
-    <t>Savings
-2021</t>
-  </si>
-  <si>
-    <t>Savings
-2022</t>
-  </si>
-  <si>
-    <t>Savings
-2023</t>
-  </si>
-  <si>
-    <t>Savings
-2024</t>
-  </si>
-  <si>
     <t>Electrical Tech and Ops</t>
   </si>
   <si>
-    <t>Projected Savings
-2026</t>
+    <t>Matched with Details sheet?</t>
   </si>
   <si>
-    <t>Savings
-2025</t>
+    <t>Projected_Savings_2026</t>
   </si>
   <si>
-    <t>Matched with Details sheet?</t>
+    <t>Cumulative_Savings_USD</t>
+  </si>
+  <si>
+    <t>Functional_Area</t>
   </si>
 </sst>
 </file>
@@ -108,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -222,12 +193,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -251,19 +222,19 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,6 +661,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -697,7 +669,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1730,7 +1701,7 @@
   <dimension ref="B3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K14"/>
+      <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,36 +1716,36 @@
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -1815,7 +1786,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -1851,7 +1822,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9">
         <v>1680000</v>
@@ -1923,7 +1894,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -1959,7 +1930,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -1995,7 +1966,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
@@ -2031,7 +2002,7 @@
     </row>
     <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="9">
         <v>0</v>
@@ -2121,7 +2092,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K14" s="15" t="e">
         <f>K12=K13</f>
@@ -2191,9 +2162,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2341,26 +2315,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D56ABD3B-FC5F-4C34-8B4B-D586E116EF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5CC615-9C64-41DE-A42C-6C3652269567}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="620c7246-2e68-4b05-8b81-cb11c13c5eb0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2384,9 +2347,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5CC615-9C64-41DE-A42C-6C3652269567}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D56ABD3B-FC5F-4C34-8B4B-D586E116EF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="620c7246-2e68-4b05-8b81-cb11c13c5eb0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>